--- a/FLUO_SPAD/Fluometer_quercus_seconda_prova.xlsx
+++ b/FLUO_SPAD/Fluometer_quercus_seconda_prova.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTTORATO\PROGETTI\PELLEGRINI\suber_analysis\FLUO_SPAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4AF66A-527F-48EE-860C-319F64A71AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BF2113-8D75-4194-9FD9-206DBD1712E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -378,7 +378,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -597,7 +596,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
@@ -671,10 +670,10 @@
       <c r="B2" s="3">
         <v>437</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>93</v>
       </c>
       <c r="E2" s="4">
@@ -709,10 +708,10 @@
       <c r="B3" s="3">
         <v>438</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="4">
@@ -747,10 +746,10 @@
       <c r="B4" s="3">
         <v>439</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>93</v>
       </c>
       <c r="E4" s="4">
@@ -785,10 +784,10 @@
       <c r="B5" s="3">
         <v>440</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="4">
@@ -823,10 +822,10 @@
       <c r="B6" s="3">
         <v>441</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" t="s">
         <v>93</v>
       </c>
       <c r="E6" s="4">
@@ -861,10 +860,10 @@
       <c r="B7" s="3">
         <v>442</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" t="s">
         <v>94</v>
       </c>
       <c r="E7" s="4">
@@ -899,10 +898,10 @@
       <c r="B8" s="3">
         <v>443</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
         <v>94</v>
       </c>
       <c r="E8" s="4">
@@ -937,10 +936,10 @@
       <c r="B9" s="3">
         <v>444</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" t="s">
         <v>94</v>
       </c>
       <c r="E9" s="4">
@@ -975,10 +974,10 @@
       <c r="B10" s="3">
         <v>445</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>94</v>
       </c>
       <c r="E10" s="4">
@@ -1013,10 +1012,10 @@
       <c r="B11" s="3">
         <v>446</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="4">
@@ -1051,10 +1050,10 @@
       <c r="B12" s="3">
         <v>447</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="4">
@@ -1089,10 +1088,10 @@
       <c r="B13" s="3">
         <v>448</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" t="s">
         <v>93</v>
       </c>
       <c r="E13" s="4">
@@ -1127,10 +1126,10 @@
       <c r="B14" s="3">
         <v>449</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" t="s">
         <v>93</v>
       </c>
       <c r="E14" s="4">
@@ -1165,10 +1164,10 @@
       <c r="B15" s="3">
         <v>450</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" t="s">
         <v>93</v>
       </c>
       <c r="E15" s="4">
@@ -1203,10 +1202,10 @@
       <c r="B16" s="3">
         <v>451</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" t="s">
         <v>93</v>
       </c>
       <c r="E16" s="4">
@@ -1241,10 +1240,10 @@
       <c r="B17" s="3">
         <v>452</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" t="s">
         <v>94</v>
       </c>
       <c r="E17" s="4">
@@ -1279,10 +1278,10 @@
       <c r="B18" s="3">
         <v>453</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="4">
@@ -1317,10 +1316,10 @@
       <c r="B19" s="3">
         <v>454</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" t="s">
         <v>94</v>
       </c>
       <c r="E19" s="4">
@@ -1355,10 +1354,10 @@
       <c r="B20" s="3">
         <v>455</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="4">
@@ -1393,10 +1392,10 @@
       <c r="B21" s="3">
         <v>457</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" t="s">
         <v>94</v>
       </c>
       <c r="E21" s="4">
@@ -1431,10 +1430,10 @@
       <c r="B22" s="3">
         <v>458</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" t="s">
         <v>93</v>
       </c>
       <c r="E22" s="4">
@@ -1469,10 +1468,10 @@
       <c r="B23" s="3">
         <v>459</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" t="s">
         <v>93</v>
       </c>
       <c r="E23" s="4">
@@ -1507,10 +1506,10 @@
       <c r="B24" s="3">
         <v>460</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" t="s">
         <v>93</v>
       </c>
       <c r="E24" s="4">
@@ -1545,10 +1544,10 @@
       <c r="B25" s="3">
         <v>461</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="4">
@@ -1583,10 +1582,10 @@
       <c r="B26" s="3">
         <v>462</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" t="s">
         <v>93</v>
       </c>
       <c r="E26" s="4">
@@ -1621,10 +1620,10 @@
       <c r="B27" s="3">
         <v>463</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" t="s">
         <v>94</v>
       </c>
       <c r="E27" s="4">
@@ -1659,10 +1658,10 @@
       <c r="B28" s="3">
         <v>464</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" t="s">
         <v>94</v>
       </c>
       <c r="E28" s="4">
@@ -1697,10 +1696,10 @@
       <c r="B29" s="3">
         <v>465</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" t="s">
         <v>94</v>
       </c>
       <c r="E29" s="4">
@@ -1735,10 +1734,10 @@
       <c r="B30" s="3">
         <v>466</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" t="s">
         <v>94</v>
       </c>
       <c r="E30" s="4">
@@ -1773,10 +1772,10 @@
       <c r="B31" s="3">
         <v>467</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" t="s">
         <v>94</v>
       </c>
       <c r="E31" s="4">
@@ -1811,10 +1810,10 @@
       <c r="B32" s="3">
         <v>468</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="4">
@@ -1849,10 +1848,10 @@
       <c r="B33" s="3">
         <v>469</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" t="s">
         <v>93</v>
       </c>
       <c r="E33" s="4">
@@ -1887,10 +1886,10 @@
       <c r="B34" s="3">
         <v>470</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" t="s">
         <v>93</v>
       </c>
       <c r="E34" s="4">
@@ -1925,10 +1924,10 @@
       <c r="B35" s="3">
         <v>471</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="4">
@@ -1963,10 +1962,10 @@
       <c r="B36" s="3">
         <v>472</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" t="s">
         <v>93</v>
       </c>
       <c r="E36" s="4">
@@ -2001,10 +2000,10 @@
       <c r="B37" s="3">
         <v>473</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" t="s">
         <v>94</v>
       </c>
       <c r="E37" s="4">
@@ -2039,10 +2038,10 @@
       <c r="B38" s="3">
         <v>474</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" t="s">
         <v>94</v>
       </c>
       <c r="E38" s="4">
@@ -2077,10 +2076,10 @@
       <c r="B39" s="3">
         <v>475</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" t="s">
         <v>94</v>
       </c>
       <c r="E39" s="4">
@@ -2115,10 +2114,10 @@
       <c r="B40" s="3">
         <v>476</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" t="s">
         <v>94</v>
       </c>
       <c r="E40" s="4">
@@ -2153,10 +2152,10 @@
       <c r="B41" s="3">
         <v>477</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" t="s">
         <v>94</v>
       </c>
       <c r="E41" s="4">
@@ -2191,10 +2190,10 @@
       <c r="B42" s="3">
         <v>478</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" t="s">
         <v>94</v>
       </c>
       <c r="E42" s="4">
@@ -2229,10 +2228,10 @@
       <c r="B43" s="3">
         <v>479</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" t="s">
         <v>94</v>
       </c>
       <c r="E43" s="4">
@@ -2267,10 +2266,10 @@
       <c r="B44" s="3">
         <v>482</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" t="s">
         <v>94</v>
       </c>
       <c r="E44" s="4">
@@ -2305,10 +2304,10 @@
       <c r="B45" s="3">
         <v>483</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" t="s">
         <v>94</v>
       </c>
       <c r="E45" s="4">
@@ -2343,10 +2342,10 @@
       <c r="B46" s="3">
         <v>484</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" t="s">
         <v>94</v>
       </c>
       <c r="E46" s="4">
@@ -2381,10 +2380,10 @@
       <c r="B47" s="3">
         <v>485</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" t="s">
         <v>93</v>
       </c>
       <c r="E47" s="4">
@@ -2419,10 +2418,10 @@
       <c r="B48" s="3">
         <v>486</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" t="s">
         <v>93</v>
       </c>
       <c r="E48" s="4">
@@ -2457,10 +2456,10 @@
       <c r="B49" s="3">
         <v>487</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" t="s">
         <v>93</v>
       </c>
       <c r="E49" s="4">
@@ -2495,10 +2494,10 @@
       <c r="B50" s="3">
         <v>488</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" t="s">
         <v>93</v>
       </c>
       <c r="E50" s="4">
@@ -2533,10 +2532,10 @@
       <c r="B51" s="3">
         <v>489</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" t="s">
         <v>93</v>
       </c>
       <c r="E51" s="4">
@@ -2571,10 +2570,10 @@
       <c r="B52" s="3">
         <v>490</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" t="s">
         <v>93</v>
       </c>
       <c r="E52" s="4">
@@ -2609,10 +2608,10 @@
       <c r="B53" s="3">
         <v>491</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" t="s">
         <v>93</v>
       </c>
       <c r="E53" s="4">
@@ -2647,10 +2646,10 @@
       <c r="B54" s="3">
         <v>492</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="4">
@@ -2685,10 +2684,10 @@
       <c r="B55" s="3">
         <v>493</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" t="s">
         <v>93</v>
       </c>
       <c r="E55" s="4">
@@ -2723,10 +2722,10 @@
       <c r="B56" s="3">
         <v>494</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" t="s">
         <v>93</v>
       </c>
       <c r="E56" s="4">
@@ -2761,10 +2760,10 @@
       <c r="B57" s="3">
         <v>495</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" t="s">
         <v>94</v>
       </c>
       <c r="E57" s="4">
@@ -2799,10 +2798,10 @@
       <c r="B58" s="3">
         <v>496</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" t="s">
         <v>94</v>
       </c>
       <c r="E58" s="4">
@@ -2837,10 +2836,10 @@
       <c r="B59" s="3">
         <v>497</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" t="s">
         <v>94</v>
       </c>
       <c r="E59" s="4">
@@ -2875,10 +2874,10 @@
       <c r="B60" s="3">
         <v>498</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" t="s">
         <v>94</v>
       </c>
       <c r="E60" s="4">
@@ -2913,10 +2912,10 @@
       <c r="B61" s="3">
         <v>499</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" t="s">
         <v>94</v>
       </c>
       <c r="E61" s="4">
@@ -2951,10 +2950,10 @@
       <c r="B62" s="3">
         <v>500</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" t="s">
         <v>93</v>
       </c>
       <c r="E62" s="4">
@@ -2989,10 +2988,10 @@
       <c r="B63" s="3">
         <v>501</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" t="s">
         <v>93</v>
       </c>
       <c r="E63" s="4">
@@ -3027,10 +3026,10 @@
       <c r="B64" s="3">
         <v>502</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" t="s">
         <v>93</v>
       </c>
       <c r="E64" s="4">
@@ -3065,10 +3064,10 @@
       <c r="B65" s="3">
         <v>503</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" t="s">
         <v>93</v>
       </c>
       <c r="E65" s="4">
@@ -3103,10 +3102,10 @@
       <c r="B66" s="3">
         <v>504</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" t="s">
         <v>93</v>
       </c>
       <c r="E66" s="4">
@@ -3141,10 +3140,10 @@
       <c r="B67" s="3">
         <v>505</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" t="s">
         <v>94</v>
       </c>
       <c r="E67" s="4">
@@ -3179,10 +3178,10 @@
       <c r="B68" s="3">
         <v>506</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" t="s">
         <v>92</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" t="s">
         <v>94</v>
       </c>
       <c r="E68" s="4">
@@ -3217,10 +3216,10 @@
       <c r="B69" s="3">
         <v>507</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" t="s">
         <v>92</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" t="s">
         <v>94</v>
       </c>
       <c r="E69" s="4">
@@ -3255,10 +3254,10 @@
       <c r="B70" s="3">
         <v>508</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" t="s">
         <v>94</v>
       </c>
       <c r="E70" s="4">
@@ -3293,10 +3292,10 @@
       <c r="B71" s="3">
         <v>509</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" t="s">
         <v>94</v>
       </c>
       <c r="E71" s="4">
@@ -3331,10 +3330,10 @@
       <c r="B72" s="3">
         <v>510</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" t="s">
         <v>94</v>
       </c>
       <c r="E72" s="4">
@@ -3369,10 +3368,10 @@
       <c r="B73" s="3">
         <v>511</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" t="s">
         <v>91</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" t="s">
         <v>94</v>
       </c>
       <c r="E73" s="4">
@@ -3407,10 +3406,10 @@
       <c r="B74" s="3">
         <v>512</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" t="s">
         <v>94</v>
       </c>
       <c r="E74" s="4">
@@ -3445,10 +3444,10 @@
       <c r="B75" s="3">
         <v>513</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" t="s">
         <v>94</v>
       </c>
       <c r="E75" s="4">
@@ -3483,10 +3482,10 @@
       <c r="B76" s="3">
         <v>514</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" t="s">
         <v>91</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" t="s">
         <v>94</v>
       </c>
       <c r="E76" s="4">
@@ -3521,10 +3520,10 @@
       <c r="B77" s="3">
         <v>515</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" t="s">
         <v>93</v>
       </c>
       <c r="E77" s="4">
@@ -3559,10 +3558,10 @@
       <c r="B78" s="3">
         <v>516</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" t="s">
         <v>93</v>
       </c>
       <c r="E78" s="4">
@@ -3597,10 +3596,10 @@
       <c r="B79" s="3">
         <v>517</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" t="s">
         <v>93</v>
       </c>
       <c r="E79" s="4">
@@ -3635,10 +3634,10 @@
       <c r="B80" s="3">
         <v>518</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" t="s">
         <v>93</v>
       </c>
       <c r="E80" s="4">
@@ -3673,10 +3672,10 @@
       <c r="B81" s="3">
         <v>519</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" t="s">
         <v>93</v>
       </c>
       <c r="E81" s="4">
@@ -3711,10 +3710,10 @@
       <c r="B82" s="3">
         <v>520</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" t="s">
         <v>91</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" t="s">
         <v>93</v>
       </c>
       <c r="E82" s="4">
@@ -3749,10 +3748,10 @@
       <c r="B83" s="3">
         <v>521</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" t="s">
         <v>93</v>
       </c>
       <c r="E83" s="4">
@@ -3787,10 +3786,10 @@
       <c r="B84" s="3">
         <v>522</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" t="s">
         <v>93</v>
       </c>
       <c r="E84" s="4">
@@ -3825,10 +3824,10 @@
       <c r="B85" s="3">
         <v>523</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" t="s">
         <v>93</v>
       </c>
       <c r="E85" s="4">
@@ -3863,10 +3862,10 @@
       <c r="B86" s="3">
         <v>524</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" t="s">
         <v>93</v>
       </c>
       <c r="E86" s="4">
@@ -3901,10 +3900,10 @@
       <c r="B87" s="3">
         <v>525</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" t="s">
         <v>91</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" t="s">
         <v>94</v>
       </c>
       <c r="E87" s="4">
@@ -3939,10 +3938,10 @@
       <c r="B88" s="3">
         <v>526</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" t="s">
         <v>94</v>
       </c>
       <c r="E88" s="4">
@@ -3977,10 +3976,10 @@
       <c r="B89" s="3">
         <v>527</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" t="s">
         <v>91</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" t="s">
         <v>94</v>
       </c>
       <c r="E89" s="4">
@@ -4015,10 +4014,10 @@
       <c r="B90" s="3">
         <v>528</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" t="s">
         <v>94</v>
       </c>
       <c r="E90" s="4">
@@ -4053,10 +4052,10 @@
       <c r="B91" s="3">
         <v>529</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" t="s">
         <v>91</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" t="s">
         <v>94</v>
       </c>
       <c r="E91" s="4">
@@ -4091,10 +4090,10 @@
       <c r="B92" s="3">
         <v>530</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" t="s">
         <v>92</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" t="s">
         <v>94</v>
       </c>
       <c r="E92" s="4">
@@ -4129,10 +4128,10 @@
       <c r="B93" s="3">
         <v>531</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" t="s">
         <v>92</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" t="s">
         <v>94</v>
       </c>
       <c r="E93" s="4">
@@ -4167,10 +4166,10 @@
       <c r="B94" s="3">
         <v>532</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" t="s">
         <v>94</v>
       </c>
       <c r="E94" s="4">
@@ -4205,10 +4204,10 @@
       <c r="B95" s="3">
         <v>533</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" t="s">
         <v>94</v>
       </c>
       <c r="E95" s="4">
@@ -4243,10 +4242,10 @@
       <c r="B96" s="3">
         <v>534</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" t="s">
         <v>92</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" t="s">
         <v>94</v>
       </c>
       <c r="E96" s="4">
@@ -4281,10 +4280,10 @@
       <c r="B97" s="3">
         <v>535</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" t="s">
         <v>92</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" t="s">
         <v>93</v>
       </c>
       <c r="E97" s="4">
@@ -4319,10 +4318,10 @@
       <c r="B98" s="3">
         <v>536</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" t="s">
         <v>92</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" t="s">
         <v>93</v>
       </c>
       <c r="E98" s="4">
@@ -4357,10 +4356,10 @@
       <c r="B99" s="3">
         <v>537</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" t="s">
         <v>92</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="4">
@@ -4395,10 +4394,10 @@
       <c r="B100" s="3">
         <v>538</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" t="s">
         <v>92</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" t="s">
         <v>93</v>
       </c>
       <c r="E100" s="4">
@@ -4433,10 +4432,10 @@
       <c r="B101" s="3">
         <v>539</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" t="s">
         <v>92</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" t="s">
         <v>93</v>
       </c>
       <c r="E101" s="4">
@@ -4471,10 +4470,10 @@
       <c r="B102" s="3">
         <v>540</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" t="s">
         <v>92</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" t="s">
         <v>94</v>
       </c>
       <c r="E102" s="4">
@@ -4509,10 +4508,10 @@
       <c r="B103" s="3">
         <v>541</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" t="s">
         <v>92</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" t="s">
         <v>94</v>
       </c>
       <c r="E103" s="4">
@@ -4547,10 +4546,10 @@
       <c r="B104" s="3">
         <v>542</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" t="s">
         <v>92</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" t="s">
         <v>94</v>
       </c>
       <c r="E104" s="4">
@@ -4585,10 +4584,10 @@
       <c r="B105" s="3">
         <v>543</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" t="s">
         <v>92</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" t="s">
         <v>94</v>
       </c>
       <c r="E105" s="4">
@@ -4623,10 +4622,10 @@
       <c r="B106" s="3">
         <v>544</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" t="s">
         <v>92</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" t="s">
         <v>94</v>
       </c>
       <c r="E106" s="4">
@@ -4661,10 +4660,10 @@
       <c r="B107" s="3">
         <v>545</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" t="s">
         <v>92</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" t="s">
         <v>93</v>
       </c>
       <c r="E107" s="4">
@@ -4699,10 +4698,10 @@
       <c r="B108" s="3">
         <v>546</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" t="s">
         <v>92</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" t="s">
         <v>93</v>
       </c>
       <c r="E108" s="4">
@@ -4737,10 +4736,10 @@
       <c r="B109" s="3">
         <v>547</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" t="s">
         <v>92</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" t="s">
         <v>93</v>
       </c>
       <c r="E109" s="4">
@@ -4775,10 +4774,10 @@
       <c r="B110" s="3">
         <v>548</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" t="s">
         <v>92</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" t="s">
         <v>93</v>
       </c>
       <c r="E110" s="4">
@@ -4813,10 +4812,10 @@
       <c r="B111" s="3">
         <v>549</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" t="s">
         <v>92</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" t="s">
         <v>93</v>
       </c>
       <c r="E111" s="4">
@@ -4851,10 +4850,10 @@
       <c r="B112" s="3">
         <v>550</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" t="s">
         <v>91</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" t="s">
         <v>94</v>
       </c>
       <c r="E112" s="4">
@@ -4889,10 +4888,10 @@
       <c r="B113" s="3">
         <v>551</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" t="s">
         <v>91</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" t="s">
         <v>94</v>
       </c>
       <c r="E113" s="4">
@@ -4927,10 +4926,10 @@
       <c r="B114" s="3">
         <v>552</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" t="s">
         <v>91</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" t="s">
         <v>94</v>
       </c>
       <c r="E114" s="4">
@@ -4965,10 +4964,10 @@
       <c r="B115" s="3">
         <v>553</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" t="s">
         <v>91</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" t="s">
         <v>94</v>
       </c>
       <c r="E115" s="4">
@@ -5003,10 +5002,10 @@
       <c r="B116" s="3">
         <v>554</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" t="s">
         <v>91</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" t="s">
         <v>94</v>
       </c>
       <c r="E116" s="4">
@@ -5041,10 +5040,10 @@
       <c r="B117" s="3">
         <v>555</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" t="s">
         <v>91</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" t="s">
         <v>93</v>
       </c>
       <c r="E117" s="4">
@@ -5079,10 +5078,10 @@
       <c r="B118" s="3">
         <v>556</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" t="s">
         <v>91</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" t="s">
         <v>93</v>
       </c>
       <c r="E118" s="4">
@@ -5117,10 +5116,10 @@
       <c r="B119" s="3">
         <v>557</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" t="s">
         <v>91</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" t="s">
         <v>93</v>
       </c>
       <c r="E119" s="4">
@@ -5155,10 +5154,10 @@
       <c r="B120" s="3">
         <v>558</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" t="s">
         <v>91</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" t="s">
         <v>93</v>
       </c>
       <c r="E120" s="4">
@@ -5193,10 +5192,10 @@
       <c r="B121" s="3">
         <v>559</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" t="s">
         <v>91</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" t="s">
         <v>93</v>
       </c>
       <c r="E121" s="4">
@@ -5231,10 +5230,10 @@
       <c r="B122" s="3">
         <v>560</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" t="s">
         <v>92</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" t="s">
         <v>94</v>
       </c>
       <c r="E122" s="4">
@@ -5269,10 +5268,10 @@
       <c r="B123" s="3">
         <v>561</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" t="s">
         <v>92</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" t="s">
         <v>94</v>
       </c>
       <c r="E123" s="4">
@@ -5307,10 +5306,10 @@
       <c r="B124" s="3">
         <v>562</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" t="s">
         <v>92</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" t="s">
         <v>94</v>
       </c>
       <c r="E124" s="4">
@@ -5345,10 +5344,10 @@
       <c r="B125" s="3">
         <v>563</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" t="s">
         <v>92</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" t="s">
         <v>94</v>
       </c>
       <c r="E125" s="4">
@@ -5383,10 +5382,10 @@
       <c r="B126" s="3">
         <v>564</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" t="s">
         <v>92</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" t="s">
         <v>94</v>
       </c>
       <c r="E126" s="4">
@@ -5421,10 +5420,10 @@
       <c r="B127" s="3">
         <v>565</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" t="s">
         <v>92</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" t="s">
         <v>93</v>
       </c>
       <c r="E127" s="4">
@@ -5459,10 +5458,10 @@
       <c r="B128" s="3">
         <v>566</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" t="s">
         <v>92</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" t="s">
         <v>93</v>
       </c>
       <c r="E128" s="4">
@@ -5497,10 +5496,10 @@
       <c r="B129" s="3">
         <v>567</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" t="s">
         <v>92</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" t="s">
         <v>93</v>
       </c>
       <c r="E129" s="4">
@@ -5535,10 +5534,10 @@
       <c r="B130" s="3">
         <v>568</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" t="s">
         <v>92</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" t="s">
         <v>93</v>
       </c>
       <c r="E130" s="4">
@@ -5573,10 +5572,10 @@
       <c r="B131" s="3">
         <v>569</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" t="s">
         <v>92</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" t="s">
         <v>93</v>
       </c>
       <c r="E131" s="4">
@@ -5611,10 +5610,10 @@
       <c r="B132" s="3">
         <v>570</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" t="s">
         <v>91</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" t="s">
         <v>93</v>
       </c>
       <c r="E132" s="4">
@@ -5649,10 +5648,10 @@
       <c r="B133" s="3">
         <v>571</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" t="s">
         <v>91</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" t="s">
         <v>93</v>
       </c>
       <c r="E133" s="4">
@@ -5687,10 +5686,10 @@
       <c r="B134" s="3">
         <v>572</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" t="s">
         <v>91</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" t="s">
         <v>93</v>
       </c>
       <c r="E134" s="4">
@@ -5725,10 +5724,10 @@
       <c r="B135" s="3">
         <v>573</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" t="s">
         <v>91</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" t="s">
         <v>93</v>
       </c>
       <c r="E135" s="4">
@@ -5763,10 +5762,10 @@
       <c r="B136" s="3">
         <v>574</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" t="s">
         <v>91</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" t="s">
         <v>93</v>
       </c>
       <c r="E136" s="4">
@@ -5801,10 +5800,10 @@
       <c r="B137" s="3">
         <v>575</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" t="s">
         <v>91</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" t="s">
         <v>94</v>
       </c>
       <c r="E137" s="4">
@@ -5839,10 +5838,10 @@
       <c r="B138" s="3">
         <v>576</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" t="s">
         <v>91</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" t="s">
         <v>94</v>
       </c>
       <c r="E138" s="4">
@@ -5877,10 +5876,10 @@
       <c r="B139" s="3">
         <v>577</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" t="s">
         <v>91</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" t="s">
         <v>94</v>
       </c>
       <c r="E139" s="4">
@@ -5915,10 +5914,10 @@
       <c r="B140" s="3">
         <v>578</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" t="s">
         <v>91</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" t="s">
         <v>94</v>
       </c>
       <c r="E140" s="4">
@@ -5953,10 +5952,10 @@
       <c r="B141" s="3">
         <v>579</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" t="s">
         <v>91</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" t="s">
         <v>94</v>
       </c>
       <c r="E141" s="4">
@@ -5991,10 +5990,10 @@
       <c r="B142" s="3">
         <v>580</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" t="s">
         <v>91</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" t="s">
         <v>94</v>
       </c>
       <c r="E142" s="4">
@@ -6029,10 +6028,10 @@
       <c r="B143" s="3">
         <v>581</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" t="s">
         <v>91</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" t="s">
         <v>94</v>
       </c>
       <c r="E143" s="4">
@@ -6067,10 +6066,10 @@
       <c r="B144" s="3">
         <v>582</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" t="s">
         <v>91</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" t="s">
         <v>94</v>
       </c>
       <c r="E144" s="4">
@@ -6105,10 +6104,10 @@
       <c r="B145" s="3">
         <v>583</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" t="s">
         <v>91</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" t="s">
         <v>94</v>
       </c>
       <c r="E145" s="4">
@@ -6143,10 +6142,10 @@
       <c r="B146" s="3">
         <v>584</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" t="s">
         <v>91</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" t="s">
         <v>94</v>
       </c>
       <c r="E146" s="4">
@@ -6181,10 +6180,10 @@
       <c r="B147" s="3">
         <v>585</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" t="s">
         <v>91</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" t="s">
         <v>93</v>
       </c>
       <c r="E147" s="4">
@@ -6219,10 +6218,10 @@
       <c r="B148" s="3">
         <v>586</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" t="s">
         <v>91</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" t="s">
         <v>93</v>
       </c>
       <c r="E148" s="4">
@@ -6257,10 +6256,10 @@
       <c r="B149" s="3">
         <v>587</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" t="s">
         <v>91</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" t="s">
         <v>93</v>
       </c>
       <c r="E149" s="4">
@@ -6295,10 +6294,10 @@
       <c r="B150" s="3">
         <v>588</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" t="s">
         <v>91</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" t="s">
         <v>93</v>
       </c>
       <c r="E150" s="4">
@@ -6333,10 +6332,10 @@
       <c r="B151" s="3">
         <v>589</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" t="s">
         <v>91</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" t="s">
         <v>93</v>
       </c>
       <c r="E151" s="4">
@@ -6371,10 +6370,10 @@
       <c r="B152" s="3">
         <v>590</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" t="s">
         <v>92</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" t="s">
         <v>93</v>
       </c>
       <c r="E152" s="4">
@@ -6409,10 +6408,10 @@
       <c r="B153" s="3">
         <v>591</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" t="s">
         <v>93</v>
       </c>
       <c r="E153" s="4">
@@ -6447,10 +6446,10 @@
       <c r="B154" s="3">
         <v>592</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" t="s">
         <v>92</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" t="s">
         <v>93</v>
       </c>
       <c r="E154" s="4">
@@ -6485,10 +6484,10 @@
       <c r="B155" s="3">
         <v>593</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" t="s">
         <v>92</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" t="s">
         <v>93</v>
       </c>
       <c r="E155" s="4">
@@ -6523,10 +6522,10 @@
       <c r="B156" s="3">
         <v>594</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C156" t="s">
         <v>92</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" t="s">
         <v>93</v>
       </c>
       <c r="E156" s="4">
@@ -6561,10 +6560,10 @@
       <c r="B157" s="3">
         <v>595</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" t="s">
         <v>92</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" t="s">
         <v>94</v>
       </c>
       <c r="E157" s="4">
@@ -6599,10 +6598,10 @@
       <c r="B158" s="3">
         <v>596</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" t="s">
         <v>92</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" t="s">
         <v>94</v>
       </c>
       <c r="E158" s="4">
@@ -6637,10 +6636,10 @@
       <c r="B159" s="3">
         <v>597</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" t="s">
         <v>92</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" t="s">
         <v>94</v>
       </c>
       <c r="E159" s="4">
@@ -6675,10 +6674,10 @@
       <c r="B160" s="3">
         <v>598</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" t="s">
         <v>92</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" t="s">
         <v>94</v>
       </c>
       <c r="E160" s="4">
@@ -6713,10 +6712,10 @@
       <c r="B161" s="3">
         <v>599</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" t="s">
         <v>92</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" t="s">
         <v>94</v>
       </c>
       <c r="E161" s="4">
